--- a/Data/chem_research_2024_finegrained.xlsx
+++ b/Data/chem_research_2024_finegrained.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Research/MOOSE-Chem-Ch2/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C794AC14-39FF-654D-B87E-4F4B70BED7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -1386,7 +1391,7 @@
 Mechanical and Interfacial Analysis, using tensile strength tests, X-ray absorption spectroscopy (XAS), and Fourier transform infrared spectroscopy (FTIR), confirmed the formation of hydrogen and coordination bonds that contribute to the enhanced mechanical properties.</t>
   </si>
   <si>
-    <t>insp1: Liquid Metal (LM) Bridging for MXene Films (ref id: 22); insp2: Sequential Bridging with Bacterial Cellulose (BC) (ref if: 12)</t>
+    <t>insp1: Liquid Metal (LM) Bridging for MXene Films (ref id: 22); insp2: Sequential Bridging with Bacterial Cellulose (BC) (ref id: 12)</t>
   </si>
   <si>
     <t xml:space="preserve">### **Scientific Finding: A Novel Methodology for Fabricating Ultrastrong MXene Films**
@@ -1734,55 +1739,6 @@
   </si>
   <si>
     <t>insp1: Ru (ref id 15); insp2: D2O (ref id 39)</t>
-  </si>
-  <si>
-    <t>1. **Catalysis Type**: The study introduces a metallaphotoredox catalysis strategy, effectively merging photoredox and nickel catalysis for C–H functionalization of carbohydrates, enabling diverse C–R glycoside synthesis.
-2. **Catalyst and Ligand**: 
-   - **Nickel Catalyst**: NiBr2(DME) is used, facilitating cross-coupling.
-   - **Ligand**: dtbbpy (4,4'-di-t-butyl-2,2'-dipyridyl) enhances site selectivity and efficiency, critical for ligand-controlled site-divergent functionalization.
-3. **Photocatalyst**: 
-   - TBADT (tetrabutylammonium decatungstate) initiates the HAT process, generating α-oxy carbon-centered radicals from carbohydrates under light irradiation.
-4. **Reaction Conditions**: 
-   - Conducted at 25 °C with a 10 W 390 nm LED lamp for 60 hours, optimized for high efficiency and stereoselectivity.
-5. **Solvent**: 
-   - Anhydrous acetonitrile (MeCN) provides a suitable solvent environment, maintaining anhydrous conditions conducive to the reaction.
-6. **Substrate Scope and Versatility**: 
-   - Accommodates a variety of substrates, including aryl, alkenyl, and alkynyl bromides, demonstrating its versatility in synthesizing C-glycosides with aryl, heteroaryl, alkenyl, alkynyl, or alkyl groups.
-7. **Functionalization and Site Divergence**: 
-   - Enables site-divergent functionalization of carbohydrates, allowing for the synthesis of unexplored carbohydrates with quaternary stereocenters, through ligand-controlled mechanisms.
-8. **Mechanism**: 
-   - Involves selective photoactivation of α-C–H bonds to generate glycosyl radicals, followed by stereoselective cross-coupling with nickel species, emphasizing an innovative C–H functionalization approach.
-9. **Synthetic Utility**: 
-   - Demonstrated in the synthesis of pharmaceutically relevant molecules, showcasing the method's effectiveness in complex carbohydrate synthesis.
-10. **Challenges Addressed**: 
-    - Overcomes challenges in stereoselective synthesis of complex carbohydrates, offering high stereoselectivity and broad applicability across glycosyl units.
-11. **Ligand-Controlled Site Divergence**: 
-    - The ligand-controlled strategy allows precise functionalization at different carbohydrate sites, enhancing synthetic precision.
-12. **Mechanistic Insights**: 
-    - Deuterium labeling and computational studies provide insights into reversible HAT processes and the role of glycosyl radicals, confirming the mechanistic pathway and the importance of nickel species in cross-coupling.</t>
-  </si>
-  <si>
-    <t>1. **General Synthesis of C-Glycosides**:
-   - **Objective**: To synthesize a broad range of C–R glycosides using a novel metallaphotoredox catalytic method.
-   - **Procedure**: In an oven-dried 10 mL vial, combine 1-deoxyglycoside (1 mmol), aryl bromide (0.2 mmol), NiBr2(DME) (6.2 mg, 10 mol%), dtbbpy (8.3 mg, 15 mol%), TBADT (13.4 mg, 2 mol%), and K3PO4 (50.9 mg, 1.2 equiv.) in anhydrous acetonitrile (2 mL). Stir the mixture under irradiation with a 10 W 390 nm LED lamp at 25°C for 60 hours. After completion, filter the reaction mixture through celite, wash with ethyl acetate, evaporate the solvent under reduced pressure, and purify the residue by column chromatography on silica gel using petroleum ether/ethyl acetate as the eluent.
-2. **Stereoselectivity Studies**:
-   - **Objective**: To evaluate the stereoselectivity of the synthetic method across various glycoside substrates.
-   - **Procedure**: Conduct the synthesis of glycosides using substrates with known stereocenters. Analyze the stereochemical outcome by performing NMR spectroscopy to determine diastereomeric ratios, confirming the selectivity of the reaction.
-3. **Site-Divergent Functionalization**:
-   - **Objective**: To demonstrate selective functionalization of different sites on carbohydrates by varying catalyst steric properties.
-   - **Procedure**: Use the general synthesis conditions, substituting the ligand with sterically hindered tridentate tbtpy for C1-selectivity or bidentate dtbbpy for C2-selectivity. Perform reactions to achieve site-specific functionalization on carbohydrates and analyze the products using NMR to confirm site-divergence.
-4. **Synthesis of C-Alkenyl Glycosides**:
-   - **Objective**: To synthesize C-alkenyl glycosides while controlling E/Z isomerization.
-   - **Procedure**: Implement a dual catalytic system with TBADT and Fe catalyst. In a 10 mL vial, mix 1-deoxyglycoside (1 mmol), E-haloalkene (0.2 mmol), TBADT (2 mol%), and an Fe catalyst in acetonitrile. Irradiate the mixture with a 390 nm LED lamp. Monitor the reaction and evaluate the E/Z isomer ratio using NMR spectroscopy to ensure high stereoselectivity.
-5. **Mechanistic Investigations**:
-   - **Objective**: To understand the reaction mechanism and the role of ligands.
-   - **Procedure**: Prepare deuterated glycosides by reductive cleavage of anomeric acetates. Conduct the synthesis under standard conditions and analyze deuterium incorporation via NMR. Perform competition experiments using isotopically labeled substrates to measure kinetic isotope effects and assess the rate-determining steps.
-6. **Computational Studies**:
-   - **Objective**: To provide theoretical support for experimental findings, elucidating the reaction mechanism and ligand effects.
-   - **Procedure**: Use computational software (such as Gaussian) to perform DFT calculations. Model the reaction pathway, focusing on radical capture, ligand influence, and C–C bond formation. Calculate free energy profiles for different catalytic cycles and evaluate the steric and electronic effects of ligands.
-7. **Synthetic Applications**:
-   - **Objective**: To demonstrate the method's applicability in synthesizing biologically active compounds and deuterated glycosides.
-   - **Procedure**: Apply the developed methodology to synthesize specific natural products, pharmaceuticals, and deuterated compounds. Use the general synthesis conditions, adjusting the substrate and reaction conditions for each target compound. Validate the structure and purity using NMR, mass spectrometry, and X-ray crystallography when necessary.</t>
   </si>
   <si>
     <t>8</t>
@@ -4262,74 +4218,7 @@
 The paper presents a scalable methodology to fabricate CNTFs with unprecedented dynamic strength and toughness. By optimizing interfacial interactions, alignment, and densification, the authors successfully harnessed the intrinsic strength of CNTs at the macroscale, paving the way for next-generation impact-resistant materials.</t>
   </si>
   <si>
-    <t xml:space="preserve">#### **1. CNTF Fabrication and Optimization**
-- **No missing details.** The description of FCCVD, purification, functionalization, CSA treatment, progressive stretching, PBO infusion, and mechanical rolling is complete.
-- **Verification:** All steps are described in sufficient detail (e.g., conditions such as temperatures, stretching ratios, and concentrations). No corrections are needed.
----
-#### **2. Structural Characterization**
-- **No missing details.** The use of SEM, TEM, WAXS, SAXS, nano-CT, and FTIR is described comprehensively.
-- **Verification:** Each technique is correctly linked to its purpose (e.g., SEM/TEM for alignment, WAXS for orientation factor, SAXS/nano-CT for porosity, FTIR for interfacial interactions). No corrections are needed.
----
-#### **3. Mechanical Property Testing**
-- **Additional Detail Added:**
-  - For **laser-induced high-velocity transverse impact testing**, the transverse velocity (cₜ) should be explicitly defined as the velocity at which the laser induces the impact on the fibers. This value can be calculated based on the laser energy and impact geometry.
-  - For **Cunniff velocity estimation**, clarify that the density (ρ) and strain at break (ε) must be measured experimentally for each CNTF type before using the equation.
-- **Verification:** All other details (e.g., strain rates for Hopkinson bar testing, strain rate for quasi-static testing, and stress-relaxation conditions) are complete and accurate.
----
-#### **4. Chemical and Thermal Characterization**
-- **No missing details.** The use of TGA, Raman spectroscopy, and XPS is described comprehensively, including their purposes.
-- **Verification:** Methods and goals are consistent with the paper. No corrections are needed.
----
-#### **5. Raman Spectroscopy for Strain Transfer**
-- **No missing details.** The description of how strain transfer is measured using the G-band downshift in Raman spectroscopy is complete.
-- **Verification:** The method for evaluating interfacial interactions and load transfer efficiency is accurate. No corrections are needed.
----
-#### **6. Fracture Morphology Analyses**
-- **No missing details.** The SEM analysis of fracture surfaces and Raman mapping of impact regions are both clearly described.
-- **Verification:** The purpose of each technique (failure morphology vs. bond breaking) is accurately stated. No corrections are needed.
----
-#### **7. Atomistic and Molecular Simulations**
-- **Additional Detail Added:**
-  - For **atomistic simulations**, clarify that the persistence length of multiwalled CNTs (1.9 × 10⁶ nm) and PBOs (38 nm) was calculated using molecular dynamics to determine their flexibility and interfacial interactions.
-  - For **CGMD simulations**, specify that the simulation box dimensions, boundary conditions, and strain rates used in the tensile tests were selected to mimic experimental conditions.
-- **Verification:** All other details (e.g., modeling interfacial energy and adsorption behavior) are correct. The additional clarifications enhance reproducibility.
----
-#### **8. Finite Element Simulations**
-- **Additional Detail Added:**
-  - Specify that the finite element model simulates the propagation of longitudinal stress waves in PBO-CNTFs during high-velocity impacts. Input parameters include Young’s modulus, density, and wave speed.
-  - Include that the simulation outputs the energy dissipation profile and stress distribution to confirm energy delocalization.
-- **Verification:** The linkage between longitudinal wave speed and impact resistance is accurate. The additional details enhance clarity.
----
-### **Final Summary of Modifications**
-After a thorough review, the following modifications were made to enhance the completeness and accuracy of the summarized experiments:
-1. **Mechanical Property Testing:**
-   - Clarified the definition of transverse velocity (cₜ) for laser-induced impact testing.
-   - Specified that density (ρ) and strain at break (ε) must be experimentally measured for Cunniff velocity estimation.
-2. **Atomistic and Molecular Simulations:**
-   - Added details about persistence length calculations for CNTs and PBOs.
-   - Specified simulation parameters (e.g., box dimensions, boundary conditions, strain rates).
-3. **Finite Element Simulations:**
-   - Added details about input parameters (Young’s modulus, density, wave speed) and outputs (energy dissipation profile, stress distribution).
-All other experiments were already complete and accurate.
----
-### **Final Verified Experiment List (with Goals)**
-#### **1. CNTF Fabrication and Optimization**
-- **Goal:** To produce CNTFs with optimized structural properties (alignment, densification, interfacial interactions) for enhanced mechanical and dynamic performance.
-#### **2. Structural Characterization**
-- **Goal:** To validate that the fabrication and optimization processes improve alignment, densification, and interfacial interactions in CNTFs.
-#### **3. Mechanical Property Testing**
-- **Goal:** To compare the mechanical properties of CNTFs under quasi-static and dynamic conditions and validate the hypothesis that optimization improves strength and toughness.
-#### **4. Chemical and Thermal Characterization**
-- **Goal:** To validate purification, functionalization, and PBO incorporation processes.
-#### **5. Raman Spectroscopy for Strain Transfer**
-- **Goal:** To confirm that optimized CNTFs exhibit stronger interfacial interactions and better load transfer efficiency.
-#### **6. Fracture Morphology Analyses**
-- **Goal:** To investigate failure mechanisms and confirm simultaneous nanotube breakage under high strain rates.
-#### **7. Atomistic and Molecular Simulations**
-- **Goal:** To provide nanoscale explanations for observed experimental improvements.
-#### **8. Finite Element Simulations**
-- **Goal:** To demonstrate that high longitudinal wave speed contributes to improved impact resistance.
-</t>
+    <t>I find insp2 on the web</t>
   </si>
   <si>
     <t>23</t>
@@ -7234,7 +7123,7 @@
 Control experiments confirmed the importance of CME in preventing side reactions and ensuring selective reduction. The experiments demonstrated that CME is essential for overcoming redox potential incompatibility, leading to successful deracemization.</t>
   </si>
   <si>
-    <t>insp 1/2/3: chemically modified electrode (CME) (ref id: 53 for insp1; I find insp2 on the web); insp2 mentions CME but in a quite different topic, might be used to test inspiration retrieveal &amp; similarity retrieval; insp3 is a book on CME</t>
+    <t>insp 1/2/3: chemically modified electrode (CME) (ref id: 53 for insp1, I find insp2 on the web); insp2 mentions CME but in a quite different topic, might be used to test inspiration retrieveal &amp; similarity retrieval; insp3 is a book on CME</t>
   </si>
   <si>
     <t>### **Final Detailed Scientific Finding**  
@@ -7704,7 +7593,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7715,14 +7604,14 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="161"/>
+        <family val="2"/>
       </rPr>
       <t>π</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7734,14 +7623,14 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <charset val="161"/>
+        <family val="2"/>
       </rPr>
       <t>π</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -9713,400 +9602,262 @@
      - Utilize the established conditions with modified substrates to assess reaction breadth.
      - Evaluate product formation and regioselectivity to demonstrate the method's adaptability.</t>
   </si>
+  <si>
+    <t># Scientific finding
+## Paper type
+**Methodology (with mechanistic explanation).** A general **electrocatalytic** protocol that converts (hetero)arenes (incl. polyfluoro/halo-arenes) into **perdeuterated, saturated (hetero)cycles** using **D₂O** and a **recyclable N-doped Ru cathode**. Broad scope (120+ building blocks; 13 drugs), high D-incorporation, scalable, and mechanistically supported by Ru–D intermediates.&amp;#x20;
+---
+## 1) Methodology — design &amp; operating window (fine-grained)
+### Cell &amp; electrodes
+* **Default cell**: **Undivided**; **Al(+) anode / Ru–N/CF(–) cathode** (Ru 3 mol%).
+* **Variants** (when needed): **Divided** cell with **CF(+)** anode; anodic chamber **NaF in D₂O**; higher Ru loading (**Ru–N/CF-2, 5 mol%**); **50 °C**; extended time. Electrode is **reusable ≥10 runs**; **Ru leaching 0.006–0.128 ppm** by ICP-OES.&amp;#x20;
+### Deuterium source, electrolyte, solvent
+* **D source**: **D₂O**; commonly **1:1 *t*-BuOD/D₂O** to aid solubility and suppress side processes.
+* **Electrolyte**: **nBu₄NBr** (typically **0.4 mmol** for 0.4 mmol substrate; **0.8 mmol** for polyfluoroarenes).
+* **Typical cathodic solvent volumes** (for 0.4 mmol scale): **2.5 mL *t*-BuOD + 2.5 mL D₂O**; divided cell often **5 mL/5 mL**; additives: **0.5 mL HFIP** in select cases.&amp;#x20;
+### Electrolysis conditions
+* **Constant current**: **10 mA** (batch); **2 A** for flow scale-up.
+* **Atmosphere**: **Ar**. **RT** for most; **50 °C** to drive full saturation on tough substrates.
+* **Time**: **8–48 h** typical; **20–72 h** for deuterodefluorinations/full reductions.&amp;#x20;
+### What this delivers
+* **Outcome**: **Perdeuterated cyclohexyl / saturated heterocycle** from (hetero)arenes; **sequential deuterodehalogenation** for halo/polyfluoroarenes.
+* **Performance**: **60–99% isolated yields**; **6–20 D per molecule**; often **≥95% D at each position**. **Bicyclohexyl: 20 D**; **hexafluorobenzene → cyclohexane-d₁₂**.&amp;#x20;
+&gt; **Optimization benchmark**: 3,5-di-*t*-Bu-1,1′-biphenyl hydrogenation/deuteration; Ru–N/CF uniquely effective vs Ru/CF, N/CF, or Pd/Ir/Pt/Rh on N/CF. Both **Ru** and **N-doped support** are required.&amp;#x20;
+---
+## 2) Substrate scope &amp; selectivity (what reacts, and how)
+* **Arenes**: anilines, phenols, ethers, acids/esters/amides (incl. **α/β-amino-acid derivatives**), CF₃-arenes, biaryls, polycyclic aromatics; **unsubstituted ring in biaryls reduces first** (sterics).&amp;#x20;
+* **Heteroarenes**: quinolines/benzo\[h]quinoline/phenanthridine, quinoxalines, naphthyridines, **pyrroles, indoles, azaindoles**, **furans/benzofurans**, **pyrazines→piperazines**; often **heteroaryl ring reduces selectively** under standard conditions; harsher conditions drive full saturation.&amp;#x20;
+* **Halo/polyfluoroarenes**: **stepwise C–F (and C–Cl/Br/I) cleavage** → saturated deuterocarbons; GC–MS shows **partially defluorinated intermediates**; typically run longer and/or at 50 °C; electrolyte often **0.8 mmol nBu₄NBr**.&amp;#x20;
+&gt; **Selectivity notes**: Early-stage **para** reduction favored (lower hindrance); &gt;100% apparent D at some positions arises from **surface H/D exchange**, broadening isotopologue distributions.&amp;#x20;
+---
+## 3) Mechanistic finding (with evidence)
+* **Key intermediate**: **Ru–D** formed **in situ** from **D₂O electrolysis** at Ru–N/CF; **ssNMR** detects Ru–D; **stoichiometric Ru–D** reduces arenes **without applied current**; **real-time XAFS** shows **low-valent Ru** generation and cycling during turnover.&amp;#x20;
+* **Proposed main path (Fig. 1d)**: **Arene coordination → diene (I) → cyclohexene (II) → fully deuterated cyclohexane (B)**; arene reduction occurs **before D₂ evolution** (LSV/kinetics). **Secondary KIE** (normal) attributed to coordination differences.&amp;#x20;
+* **Alternate path (not excluded)**: **Local D₂** from D₂O electrolysis → **Ru–D** → arene reduction (sequential D₂ formation then reduction; Extended Data).&amp;#x20;
+---
+## 4) Applications, scale-up, and practicalities
+* **Stable-isotope building blocks**: **120+** selectively deuterated scaffolds, many **perdeuterated cyclohexyl** motifs.&amp;#x20;
+* **Drug syntheses (13 cases)** from these blocks or from **piperazine-d₈**: **Glipizide (91%, 10.7 D)**, **Praziquantel (41%, 10.7 D)**, **Bromhexine (36%, 10.7 D)**, **Cilostazol precursor**, **Apixaban (59%, 7.0 D)**, **Propylhexedrine (43%, 11.3 D)**, **Quinfamide (84%, 4.2 D)**, **Aripiprazole**, **Brexpiprazole**, **Trimetazidine**, **Buspirone**, **Fipexide**, **2C-B-BZP** (typ. \~95% D in piperazine moiety).&amp;#x20;
+* **Scale-up**: **Flow electrolysis (2 A)**: **100 mmol pyrazine → 10.9 g piperazine-d₈·2HCl, 95% D**; electrode plate scaled to **13.5 × 7.5 × 0.3 cm³**. **Electrode reused ≥10×** with **negligible Ru loss**.&amp;#x20;
+* **Use cases**: **SIL LC–MS standards**, **drug metabolism/PK**, **quick access** to highly D-labeled saturated (hetero)cycles. **Caveat**: isotopologue **broadening** from H/D exchange; **mitigate** by starting from **per-D arenes** or **polyhalogenarenes** (gives narrow mass distributions).&amp;#x20;
+---
+## One-line essence
+**A reusable Ru–N/CF cathode turns cheap D₂O into on-surface Ru–D that dearomatizes and fully saturates (hetero)arenes—incl. polyfluoroarenes—into **perdeuterated cyclohexyl/heterocyclohexyl products** at 10 mA, RT (up to 50 °C), broad scope (120+ building blocks, 13 drugs), high yields and isotopic load, with gram-scale flow (2 A) and mechanistic support from ssNMR/XAFS/LSV.**&amp;#x20;</t>
+  </si>
+  <si>
+    <t># 1) Catalyst screening / reaction development (proof-of-concept)
+**Purpose** — Show only the nitrogen-doped Ru cathode (Ru–N/CF) enables efficient reductive deuteration from D₂O and define baseline conditions.&amp;#x20;
+**Inputs (chemicals)**
+* Substrate: 3,5-di-tert-butyl-1,1′-biphenyl (benchmark).
+* Deuterium source/solvent: D₂O and **t-BuOD** (used as catholyte solvent mixture).
+* Electrolyte: **n-Bu₄NBr**.
+* Cathode: **Ru–N/CF** (Ru 3 mol% relative to substrate; nitrogen-doped Ru on carbon felt).
+* Controls/counterparts: Pd/C, Ir/C, Pt/C, Rh/C, Ru/C powders on carbon; Ru/CF (no N-doping); N/CF (no Ru).
+* Anode: Al metal (sacrificial).
+* Atmosphere: Ar.
+**Apparatus**
+* **Undivided electrochemical cell** (default for scope; used here for screening).
+* Galvanostat to run **constant current 10 mA**.
+* Room temperature.&amp;#x20;
+**Setup &amp; procedure**
+1. Charge cell with substrate (0.4 mmol), n-Bu₄NBr (0.4 mmol), **t-BuOD/D₂O = 2.5 mL / 2.5 mL** (catholyte). Insert **Ru–N/CF** as cathode and **Al** as anode. Purge Ar.
+2. Run electrolysis at **10 mA, rt** for **8–48 h** (time depends on substrate; the benchmark gives full conversion with Ru–N/CF while others fail).
+3. For control runs, replace the cathode with Pd/C, Ir/C, Pt/C, Rh/C, Ru/C, Ru/CF, or N/CF under the **same conditions**.
+4. Workup and quantify product and **deuterium incorporation** (¹H NMR using tBu as internal calibration as stated) to compare performance.&amp;#x20;
+**Measurements &amp; outcomes**
+* With **Ru–N/CF**: **\~99% yield** hydrogenation in H₂O and **\~99% yield** deuteration in D₂O; **\~7.2 D per molecule** on model substrate. Controls show **no/trace** activity → establishes unique efficacy of Ru–N/CF.&amp;#x20;
+---
+# 2) Mechanistic studies (Ru–D intermediates; pathway)
+**Purpose** — Demonstrate **Ru–D** forms at the cathode from D₂O and directly reduces arenes; map sequence relative to D₂ evolution; observe intermediates.&amp;#x20;
+**A) LSV (substrate vs no-substrate)**
+* **Goal:** Show substrate reduction occurs **before** D₂ evolution.
+* **Setup:** Same electrolyte system; perform LSV on Ru–N/CF **without substrate** (D₂O only) and **with an arene** (e.g., benzamide) in D₂O.
+* **Procedure:** Record current–potential curves; compare onset currents.
+* **Outcome:** Ru **accelerates D₂O reduction** (no substrate), and adding benzamide **enhances current density** further → arene reduction precedes D₂ evolution. (Suppl. Figs. 9–11 referenced in text).&amp;#x20;
+**B) Detect Ru–D by ssNMR; stoichiometric reduction**
+* **Goal:** Identify **Ru–D** on the electrode; show **Ru–D reduces arenes without power**.
+* **Setup:** Electrolyze **D₂O** with Ru–N/CF **without any arene**; isolate/measure electrode by **solid-state NMR**.
+* **Procedure:** Run ssNMR to observe Ru–D signals; then transfer Ru–D electrode into a solution containing arene **without current** to test substrate reduction.
+* **Outcome:** Ru–D observed (ssNMR). Stoichiometric Ru–D reduces arenes **without electrical input**.&amp;#x20;
+**C) Real-time XAFS during electrolysis**
+* **Goal:** Track **Ru oxidation state** cycling during catalysis.
+* **Setup:** Operando XAFS on Ru–N/CF under electrolysis conditions.
+* **Outcome:** Low-oxidation-state Ru forms under bias; after arene reduction, higher oxidation state reappears **even without power**, consistent with a chemical reduction step by Ru–D.&amp;#x20;
+**D) Kinetic isotope effect (secondary KIE)**
+* **Goal:** Probe surface coordination differences for D- vs H-substrates.
+* **Procedure:** Compare rates/incorporation patterns under matched H/D conditions (per equations (5)–(6) in SI).
+* **Outcome:** **Normal secondary KIE** observed, consistent with slightly different coordination of D- vs H-substrates on the surface.&amp;#x20;
+**E) Transient/intermediate capture by MS &amp; GC–MS**
+* **Goal:** Observe **cyclohexadiene/cyclohexene** intermediates; in polyfluoroarenes, **stepwise defluorination**.
+* **Procedure:** Quench at partial conversion; analyze by **HRMS** (arenes) and **GC–MS** (polyfluoroarenes).
+* **Outcome:** Signals consistent with diene/cyclohexene; **defluorination detected one-by-one** prior to full reduction.&amp;#x20;
+**F) Alternative mechanism check (D₂ as intermediate)**
+* **Goal:** Assess whether locally generated D₂ could first form and then give Ru–D that reduces arenes.
+* **Approach:** Compare sequences/rates expected if **D₂ generation is first** vs arene reduction first; incorporate LSV/XAFS/MS evidence.
+* **Conclusion:** Data support **direct Ru–D pathway** (Pathway 1) while acknowledging D₂-involving Pathway 2 cannot be fully excluded (Extended Data Fig. 1).&amp;#x20;
+&gt; Notes: Exact LSV scan rates/potentials, ssNMR parameters, and XAFS beamline settings are in SI (not in main text). You can reproduce the logic and comparisons with standard settings, but exact replication needs those SI parameters.&amp;#x20;
+---
+# 3) Substrate scope (one experiment family with three sub-sets)
+**Purpose** — Establish **generality** across arenes, heteroarenes, and polyhalo/polyfluoroarenes under simple conditions.&amp;#x20;
+### 3A) Arenes (Fig. 2; Extended Data Fig. 2)
+**Standard conditions (undivided cell):**
+* **Anode:** Al(+)
+* **Cathode:** Ru–N/CF(−) (**Ru 3 mol%**)
+* **Charge:** Arene **A 0.4 mmol**, **n-Bu₄NBr 0.4 mmol**
+* **Solvents:** **t-BuOD/D₂O = 2.5 mL / 2.5 mL** (catholyte only)
+* **Current:** **10 mA** (constant), **rt**, **Ar**, **8–48 h**
+* **Workup:** Isolate saturated deuterocyclohexyl products; quantify **D per molecule** and positional D by NMR/MS.
+  **Variations recorded in figure footnotes:**
+* **Divided cell** variant (for some substrates): anode cell **CF(+), NaF 0.8 mmol, D₂O 10 mL**; cathode cell **Ru–N/CF(−), A 0.4 mmol, n-Bu₄NBr 0.8 mmol, t-BuOD/D₂O = 5.0/5.0 mL**, 10 mA, rt, Ar, 8–16 h.
+* Add **0.5 mL HFIP** to cathode cell in certain entries.
+* Use **Ru–N/CF-2 (Ru 5 mol%)**, **T = 50 °C**, and/or determine D after **benzoylation** for some substrates.
+* **Ketone substrates** are compatible (see labels).
+  **Outcomes:** Broad compatibility (amides, esters, acids, ethers, anilines, CF₃-arenes, Si/P-arenes, biaryls) with **6–11 D per molecule** typical; some up to **\~17 D** for larger frameworks.&amp;#x20;
+### 3B) Heteroarenes (Fig. 3)
+**Default conditions same as 3A** unless footnoted. Common variations used in figure:
+* Divided cell with **NaF** or **n-Bu₄NCl** as anolyte/electrolyte; **T = 50 °C** for some; **Ru 5 mol%** for tougher cases.
+* Adjust solvent volumes (**t-BuOD/D₂O** 2.0/2.0 mL at 50 °C in some).
+  **Outcomes:** Selective reduction of **N-heterocycles** (quinolines, phenanthridine, quinoxalines, naphthyridines) and **5-membered** N/O heteroarenes (pyrroles, indoles, azaindoles, furans/benzofurans). Often **&gt;10 D per molecule** when fully saturated; selective partial reductions also shown with tuning.&amp;#x20;
+### 3C) Polyfluoro/Polyhaloarenes (deuterodehalogenation; Extended Data Fig. 4)
+**Conditions (two regimes, as annotated):**
+* **Regime 1 (deeper defluorination):** Al(+), **Ru–N/CF(−) Ru 3 mol%**, **e 0.4 mmol**, **n-Bu₄NBr 0.8 mmol**, **t-BuOD/D₂O = 5.0/5.0 mL**, **10 mA**, **rt**, **Ar**, **20–72 h**.
+* **Regime 2 (shorter):** **n-Bu₄NBr 0.4 mmol**, **t-BuOD/D₂O = 2.5/2.5 mL**, **8–20 h**.
+* Some entries use **Ru 5 mol%**.
+  **Outcomes:** Stepwise **defluorination** followed by full reduction to **saturated deuterocarbons**; typical **&gt;10 D per molecule** on cyclohexane ring; compatible with **Cl, Br, I** substrates.&amp;#x20;
+---
+# 4) Fully deuterated cyclohexyl building blocks (from D-arenes or polyhaloarenes)
+**Purpose** — Deliver **perdeuterated** saturated (hetero)cycles with **&gt;96% D** incorporation for SIL standards and drug synthesis.&amp;#x20;
+**Inputs &amp; approach**
+* Prepare **perdeuterated arenes** by **H/D exchange with D₂O** (transition-metal catalysis; method referenced) and/or start from **polyhalogenated arenes**.
+* Subject these D-arenes to **the same Ru–N/CF electrocatalysis** as §3 to obtain **fully deuterated cyclohexyl** products. Extended Data Fig. 3 shows specific examples (e.g., acetanilide → 1d with **&gt;96%** D on cyclohexyl; piperazine-d₈ from deuterated pyrazine).
+* Typical **charge**: **0.4 mmol** substrate; **n-Bu₄NBr 0.4 mmol**; **t-BuOD/D₂O = 2.5/2.5 mL**; **10 mA**, **rt**, **8–20 h**; divided-cell variants as annotated.&amp;#x20;
+**Outcomes**
+* Multiple building blocks with **total D &gt;10 per molecule**; **piperazine-d₈** obtained at **96% D** when starting from deuterated pyrazine.&amp;#x20;
+&gt; Note: The **H/D exchange** step to make the starting perdeuterated arene is cited (ref. 42) but not detailed in the main text; you’ll need that procedure or an equivalent H/D-exchange method to reproduce those specific inputs.&amp;#x20;
+---
+# 5) Pharmaceutical applications (13 D-labeled drugs)
+**Purpose** — Demonstrate direct **medicinal chemistry utility** by converting deuterated building blocks to marketed drug frameworks.&amp;#x20;
+**General pattern (see Fig. 4a; each has explicit transformations):**
+* **Make the D-cyclohexyl building block** under §3 conditions (examples: **4f, 19f, 20f**, etc.).
+* **Carry out 1–3 classical steps** to reach the drug (acylation, chlorination, amination, isocyanate formation, ring closures, etc.).
+* Examples with reported yields and D counts:
+  * **\[D]1h Glipizide** from **4f** via isocyanate formation then coupling with sulfonamide **1g** (PhI(OAc)₂; K₂CO₃/acetone reflux) → **91%**, **10.7 D**.
+  * **\[D]2h Praziquantel** from **20f** via **Cl formation** then amination with **2g** → **41%**, **10.7 D**.
+  * **\[D]3h Bromhexine** from **20f** in 2 steps → **36%**, **10.7 D**.
+  * **\[D]4h′ Cilostazol precursor** from **19f** (see ref. 44) → high yield, high D.
+  * **\[D]5h Apixaban** via deuterodechlorination + reductive deuteration to D-piperidone intermediate → **59%**, **7.0 D**.
+  * **\[D]6h Propylhexedrine**, **\[D]7h Quinfamide** likewise mapped (TFA/DCM steps, acid chloride formation, etc.).
+* Extended Data Fig. 5 shows **second-stage syntheses from piperazine-d₈·2HCl** to **Aripiprazole, Brexpiprazole, Trimetazidine, Buspirone, Fipexide, 2C-B-BZP** with yields per step.&amp;#x20;
+**Execution note** — Reagents/solvents (e.g., **Cl₂CHCOCl, Et₃N, DCM; Pd(OAc)₂; (R)-BINAP; Na₂CO₃; reflux temps**) are written directly on the schemes with stepwise yields in Fig. 4a and Extended Data Fig. 5; follow those exact sequences to replicate the drug routes.&amp;#x20;
+---
+# 6) Scale-up (flow cell, 100 mmol)
+**Purpose** — Prove **scalability/industrial potential**.&amp;#x20;
+**Inputs and conditions**
+* **Substrate:** Pyrazine (**100 mmol**).
+* **Device:** **Flow electrochemical** setup with enlarged **Ru–N/CF** electrode (paper notes scaling the Ru cathode to **13.5 × 7.5 × 0.3 cm³** for amplification).
+* **Operation:** **Constant current 2 A**.
+* **Outcome:** Isolated **10.9 g piperazine-d₈·2HCl** with **95% D incorporation**. (Fig. 4b; SI §12).&amp;#x20;
+**Execution notes** — The main text specifies current (2 A) and scale (100 mmol) and the product mass/D%. Flow-cell plumbing, flow rate, and residence time are in SI; you’ll match those to your reactor geometry.&amp;#x20;
+---
+# 7) Robustness / catalyst stability and metal leaching
+**Purpose** — Show **reusability** and **low Ru contamination**.&amp;#x20;
+**Procedure &amp; measurements**
+* **Reuse** the **same Ru–N/CF** cathode **≥10 times** under standard scope conditions (as in §3) without changing performance.
+* After runs, collect reaction solutions and measure **Ru in solution** by **ICP-OES**.
+* **Outcomes:** Electrode reused **≥10×** without decreased activity; **Ru leaching 0.006–0.128 ppm** across substrates/repeats. (Supplementary Table 4; summary in main text).&amp;#x20;
+---
+## Practical notes &amp; gaps (so you’re not surprised)
+* **Electrode preparation** (Ru–N/CF, Ru–N/CF-2): The **general procedure and materials characterization** are in **SI §§2 &amp; 5**; main text doesn’t reproduce the synthesis steps. You can **purchase CF**, **do N-doping and Ru loading** to target \~3–5 mol% relative to substrate use, but exact impregnation/pyrolysis/activation parameters and N content are in the SI (needed for a literal replica).&amp;#x20;
+* **Analytical parameters** for LSV/ssNMR/XAFS (scan rates, pulse sequences, beamline configs) are **not in the main text**; SI/beamline notes are required for identical reproduction, but the **comparative logic** (with/without substrate; operando oxidation-state cycling; Ru–D detection) is fully specified here.&amp;#x20;
+---
+## Why this set is complete and non-overlapping
+* **One screening block** (feasibility).
+* **One mechanistic block** (electrochem + spectroscopy + stoichiometry + kinetics + MS/GC–MS + pathway test).
+* **One scope block** (arenes/heteroarenes/polyhalos as sub-sets under one goal).
+* **One building-block block** (perdeuteration).
+* **One applications block** (13 drugs).
+* **One scale-up block** (100 mmol flow).
+* **One robustness block** (recycle + ICP-OES).
+This progression **fully supports the paper’s hypothesis**: unique Ru–N/CF efficacy → mechanism via Ru–D → breadth → practical building blocks → real drugs → scale → durable operation.&amp;#x20;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="161"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -10144,328 +9895,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="Normal 2" xfId="45"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10750,3407 +10216,3402 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:21">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:21">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>116</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="N7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>133</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="3" t="s">
+      <c r="N8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" t="s">
         <v>149</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="N9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T10" t="s">
+        <v>181</v>
+      </c>
+      <c r="U10" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" t="s">
+        <v>196</v>
+      </c>
+      <c r="U11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T12" t="s">
+        <v>211</v>
+      </c>
+      <c r="U12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T13" t="s">
+        <v>227</v>
+      </c>
+      <c r="U13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T14" t="s">
+        <v>244</v>
+      </c>
+      <c r="U14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T15" t="s">
+        <v>261</v>
+      </c>
+      <c r="U15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T16" t="s">
+        <v>277</v>
+      </c>
+      <c r="U16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T17" t="s">
+        <v>295</v>
+      </c>
+      <c r="U17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="T18" t="s">
+        <v>310</v>
+      </c>
+      <c r="U18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="T19" t="s">
+        <v>329</v>
+      </c>
+      <c r="U19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="T20" t="s">
+        <v>344</v>
+      </c>
+      <c r="U20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="T21" t="s">
+        <v>359</v>
+      </c>
+      <c r="U21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="T22" t="s">
+        <v>375</v>
+      </c>
+      <c r="U22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="T23" t="s">
+        <v>391</v>
+      </c>
+      <c r="U23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="T24" t="s">
+        <v>409</v>
+      </c>
+      <c r="U24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="T25" t="s">
+        <v>425</v>
+      </c>
+      <c r="U25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="T26" t="s">
+        <v>441</v>
+      </c>
+      <c r="U26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="T27" t="s">
+        <v>456</v>
+      </c>
+      <c r="U27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="T28" t="s">
+        <v>472</v>
+      </c>
+      <c r="U28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="T29" t="s">
+        <v>487</v>
+      </c>
+      <c r="U29" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="T30" t="s">
+        <v>505</v>
+      </c>
+      <c r="U30" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="T31" t="s">
+        <v>520</v>
+      </c>
+      <c r="U31" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="T32" t="s">
+        <v>536</v>
+      </c>
+      <c r="U32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="T33" t="s">
+        <v>551</v>
+      </c>
+      <c r="U33" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="T34" t="s">
+        <v>568</v>
+      </c>
+      <c r="U34" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="T35" t="s">
+        <v>583</v>
+      </c>
+      <c r="U35" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="T36" t="s">
+        <v>598</v>
+      </c>
+      <c r="U36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="T37" t="s">
+        <v>612</v>
+      </c>
+      <c r="U37" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="R38" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>184</v>
+      <c r="S38" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="T38" t="s">
+        <v>630</v>
+      </c>
+      <c r="U38" t="s">
+        <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R11" s="3" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="R39" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>199</v>
+      <c r="S39" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="T39" t="s">
+        <v>646</v>
+      </c>
+      <c r="U39" t="s">
+        <v>647</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="R12" s="3" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="R40" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>214</v>
+      <c r="S40" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="T40" t="s">
+        <v>660</v>
+      </c>
+      <c r="U40" t="s">
+        <v>661</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>230</v>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="T41" t="s">
+        <v>676</v>
+      </c>
+      <c r="U41" t="s">
+        <v>677</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>247</v>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T42" t="s">
+        <v>691</v>
+      </c>
+      <c r="U42" t="s">
+        <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="R15" s="5" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="T43" t="s">
+        <v>707</v>
+      </c>
+      <c r="U43" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="T44" t="s">
+        <v>722</v>
+      </c>
+      <c r="U44" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="T45" t="s">
+        <v>737</v>
+      </c>
+      <c r="U45" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="T46" t="s">
+        <v>751</v>
+      </c>
+      <c r="U46" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="R47" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="T47" t="s">
+        <v>766</v>
+      </c>
+      <c r="U47" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="T48" t="s">
+        <v>781</v>
+      </c>
+      <c r="U48" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="R49" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>264</v>
+      <c r="S49" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="T49" t="s">
+        <v>799</v>
+      </c>
+      <c r="U49" t="s">
+        <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="R16" s="5" t="s">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="R50" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>280</v>
+      <c r="S50" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="T50" t="s">
+        <v>813</v>
+      </c>
+      <c r="U50" t="s">
+        <v>814</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>298</v>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="T51" t="s">
+        <v>828</v>
+      </c>
+      <c r="U51" t="s">
+        <v>829</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="R18" s="5" t="s">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="R52" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="R32" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="S33" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="S37" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="R38" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="R39" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S39" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="R40" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S41" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q42" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="R42" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="R43" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="R44" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S44" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S48" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="S49" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="R50" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S50" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S51" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P52" s="6" t="s">
+      <c r="S52" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="Q52" s="6" t="s">
+      <c r="T52" t="s">
         <v>843</v>
       </c>
-      <c r="R52" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S52" s="6" t="s">
+      <c r="U52" t="s">
         <v>844</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>